--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2063492.244689324</v>
+        <v>2168431.47486469</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9706309.082888015</v>
+        <v>9722626.529948646</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>145.9897563288623</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>172.2093932926073</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>69.31185905877234</v>
       </c>
       <c r="V4" t="n">
-        <v>159.8284100303891</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.3882082434906</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>173.8669947950832</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>27.77316373215943</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>137.6441564454815</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>70.01505925776679</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>50.73003670622381</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.08196437545637</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>89.61172450801193</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788180381</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>59.00369384633078</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428618</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>164.0001714587653</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>190.58191301778</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>165.8053198049113</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673027</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>71.22475183604979</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V40" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.0250037474724</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>117.4665281367401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2057.32755894284</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1566.434141227252</v>
       </c>
       <c r="V4" t="n">
-        <v>1476.748842799602</v>
+        <v>1311.749653021365</v>
       </c>
       <c r="W4" t="n">
-        <v>1187.331672762641</v>
+        <v>1022.332482984405</v>
       </c>
       <c r="X4" t="n">
-        <v>959.3421218646239</v>
+        <v>1022.332482984405</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>801.5399038408744</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2008.435833125065</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949298</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>409.1586012949298</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>409.1586012949298</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251695</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251695</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.0217593722</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.556001111121</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.416669135309</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.4774356872693</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>754.9746608886195</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5060,13 +5062,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5512,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
         <v>261.0127623330919</v>
@@ -5899,61 +5901,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782999</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>251.5626541092265</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1877.026663243044</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.342175037157</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.925005000197</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6959,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2815.530845237134</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>2646.594662309227</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>2646.594662309227</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3990.063098351769</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>3735.378610145882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>3445.961440108921</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>3217.971889210904</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>2997.179310067374</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
@@ -7597,22 +7599,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.700204330166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.624977674364</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7664,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184736</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194126</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>193.1339494774972</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409392617</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>54.58448189332952</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V40" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0.380446579815839</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>108.243127252297</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850107.0296210631</v>
+        <v>858425.7281225623</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>850107.0296210631</v>
+        <v>858425.7281225623</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26341,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810787</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9337.200356756553</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-929947.6382654882</v>
+        <v>-749160.5465562617</v>
       </c>
       <c r="C6" t="n">
-        <v>398797.1074621043</v>
+        <v>365591.2370196576</v>
       </c>
       <c r="D6" t="n">
-        <v>398797.1074621048</v>
+        <v>206169.9670217666</v>
       </c>
       <c r="E6" t="n">
-        <v>149309.092787235</v>
+        <v>149309.0927872354</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945909</v>
+        <v>474721.5545945911</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.5545945909</v>
+        <v>474721.5545945907</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.5545945907</v>
+        <v>474721.554594591</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.5545945904</v>
+        <v>474721.5545945911</v>
       </c>
       <c r="J6" t="n">
-        <v>257190.3521973133</v>
+        <v>307116.3767846082</v>
       </c>
       <c r="K6" t="n">
         <v>474721.5545945906</v>
       </c>
       <c r="L6" t="n">
-        <v>474721.5545945907</v>
+        <v>426427.5845864001</v>
       </c>
       <c r="M6" t="n">
-        <v>389666.5266590788</v>
+        <v>389666.526659079</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.5545945904</v>
+        <v>474721.5545945906</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945906</v>
+        <v>474721.5545945905</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945907</v>
+        <v>474721.5545945909</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>203.2512123885507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>214.0285453634463</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>216.9152950624283</v>
       </c>
       <c r="V4" t="n">
-        <v>92.30923329343892</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.34563341999001</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>175.3739739223298</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>118.6607989144097</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>148.8788418911095</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>279.2259094596462</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>319.0010639722452</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>94.16485672317147</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>136.0979308810252</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366843</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768135</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>522.1224556861829</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>506.0735392239789</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093084</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868574</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33763,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321073</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.286271753351</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>379.5262112417385</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295757</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949373</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648392</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876629</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168431.47486469</v>
+        <v>2164335.833359924</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722626.529948646</v>
+        <v>9722626.529948648</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>248.4709590479378</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.2093932926073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>69.31185905877234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>66.40055121331423</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>300.2260400206189</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>173.8669947950832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>137.6441564454815</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>15.33854647025977</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>50.73003670622381</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>89.61172450801193</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>146.433962646563</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>113.5028334418627</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161906772</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.0001714587653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671156</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>190.58191301778</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>67.9693421596363</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.22475183604979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.4114987159128</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056585</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.32755894284</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.8914390106347</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
         <v>619.8914390106347</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1566.434141227252</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.749653021365</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="W4" t="n">
-        <v>1022.332482984405</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X4" t="n">
-        <v>1022.332482984405</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>801.5399038408744</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1509.545268846059</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1151.279570239308</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>765.4913176410641</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>354.5054128514566</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2008.435833125065</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1634.970074863985</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.970074863985</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,40 +4634,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1242.727130408528</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.73757951051</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>124.0024964758053</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>754.9746608886195</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>801.660573353274</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253671</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253671</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2265.268053123711</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1976.192826467909</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1721.508338262022</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225061</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.101617327044</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3090381835137</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.129363765926</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1363.885660588917</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>2817.800993781637</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>951.777212765616</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.777212765616</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630498</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.5813165460164</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>385.6451336181095</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.113569660651</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.429081454764</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.011911417804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>957.0223605197863</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.2297813762561</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>449.3439841395904</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184736</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.9026168854256</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.54986409393101</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.58448189332952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.5874149221285165</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>218.5536561769547</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>35.112639576356</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="N2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.271283825567003e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756674</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26444,7 +26444,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
@@ -26453,13 +26453,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-749160.5465562617</v>
       </c>
       <c r="C6" t="n">
-        <v>365591.2370196576</v>
+        <v>365591.237019658</v>
       </c>
       <c r="D6" t="n">
-        <v>206169.9670217666</v>
+        <v>206169.9670217665</v>
       </c>
       <c r="E6" t="n">
-        <v>149309.0927872354</v>
+        <v>148961.7135328785</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945911</v>
+        <v>474374.1753402333</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.5545945907</v>
+        <v>474374.1753402337</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.554594591</v>
+        <v>474374.1753402335</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.5545945911</v>
+        <v>474374.1753402339</v>
       </c>
       <c r="J6" t="n">
-        <v>307116.3767846082</v>
+        <v>306768.9975302508</v>
       </c>
       <c r="K6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402338</v>
       </c>
       <c r="L6" t="n">
-        <v>426427.5845864001</v>
+        <v>426080.2053320426</v>
       </c>
       <c r="M6" t="n">
-        <v>389666.526659079</v>
+        <v>389319.1474047218</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402335</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945905</v>
+        <v>474374.1753402337</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945909</v>
+        <v>474374.1753402337</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,10 +26795,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>134.2628826155427</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.0285453634463</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>216.9152950624283</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>185.7370921105138</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>111.3216627523351</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>175.3739739223298</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>148.8788418911095</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>395.5831791831937</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>319.0010639722452</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0979308810252</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.32677953280065e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28626,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28730,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6.13460853191865e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226052</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>279.0775374915855</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868574</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786837</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420058</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015965</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.985332142731</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>136.4812930471411</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648392</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342392</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164335.833359924</v>
+        <v>2166096.363662709</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722626.529948648</v>
+        <v>9722626.529948646</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248.4709590479378</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>66.40055121331423</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>300.2260400206189</v>
+        <v>219.4680682903628</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.16320161686866</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>15.33854647025977</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.2811815126426057</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187853</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>7.408064079031337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646563</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>113.5028334418627</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>285.5970594671156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>31.83025205764035</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>67.9693421596363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>125.8152577453158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.246750862032</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>880.2842339216199</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.22751757712</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y2" t="n">
-        <v>1500.22751757712</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508774</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1569.374856222664</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.374856222664</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,64 +4543,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.507785786471</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.545268846059</v>
+        <v>1136.07951058498</v>
       </c>
       <c r="D5" t="n">
-        <v>1151.279570239308</v>
+        <v>1136.07951058498</v>
       </c>
       <c r="E5" t="n">
-        <v>765.4913176410641</v>
+        <v>750.2912579867352</v>
       </c>
       <c r="F5" t="n">
-        <v>354.5054128514566</v>
+        <v>339.3053531971277</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
         <v>2231.276441056585</v>
@@ -4609,10 +4609,10 @@
         <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.507785786471</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429759</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>250.6555853275966</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688551</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.004869410819</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470408</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>920.7766538636572</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>534.9884012654129</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>124.0024964758053</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
@@ -4883,52 +4883,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.660573353274</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253671</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5670,13 +5670,13 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2265.268053123711</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1976.192826467909</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.508338262022</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.091168225061</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.101617327044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3090381835137</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,13 +5968,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6013,16 +6013,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6378,10 +6378,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,7 +6408,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
         <v>2254.869721166297</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>267.680263960966</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7074,31 +7074,31 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797747</v>
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7356,7 +7356,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241562</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>-1.477928890381008e-12</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>279.1149342575596</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.9026168854256</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5874149221285165</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.6938862346285</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.5536561769547</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>39.70888054695307</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
@@ -26331,31 +26331,31 @@
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.284775254</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>2.271283825567003e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756674</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756541</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-749160.5465562617</v>
+        <v>-749160.5465562615</v>
       </c>
       <c r="C6" t="n">
-        <v>365591.237019658</v>
+        <v>365591.2370196583</v>
       </c>
       <c r="D6" t="n">
         <v>206169.9670217665</v>
       </c>
       <c r="E6" t="n">
-        <v>148961.7135328785</v>
+        <v>149274.3548617992</v>
       </c>
       <c r="F6" t="n">
-        <v>474374.1753402333</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="G6" t="n">
-        <v>474374.1753402337</v>
+        <v>474686.8166691551</v>
       </c>
       <c r="H6" t="n">
-        <v>474374.1753402335</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="I6" t="n">
-        <v>474374.1753402339</v>
+        <v>474686.8166691553</v>
       </c>
       <c r="J6" t="n">
-        <v>306768.9975302508</v>
+        <v>307081.6388591725</v>
       </c>
       <c r="K6" t="n">
-        <v>474374.1753402338</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="L6" t="n">
-        <v>426080.2053320426</v>
+        <v>426392.8466609643</v>
       </c>
       <c r="M6" t="n">
-        <v>389319.1474047218</v>
+        <v>389631.7887336432</v>
       </c>
       <c r="N6" t="n">
-        <v>474374.1753402335</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="O6" t="n">
-        <v>474374.1753402337</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="P6" t="n">
-        <v>474374.1753402337</v>
+        <v>474686.8166691551</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134.2628826155427</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>185.7370921105138</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>111.3216627523351</v>
+        <v>192.0796344825912</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>116.1433984279355</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745044</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>395.5831791831937</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.32677953280065e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28626,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28730,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.13460853191865e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-7.253144877307944e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32481,7 +32481,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32958,7 +32958,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>397.620397467641</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37156,13 +37156,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
